--- a/log/test_result.xlsx
+++ b/log/test_result.xlsx
@@ -474,7 +474,7 @@
     <col width="80" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -515,7 +515,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>[PASS] PRICE/CLOSE &lt; 200</t>
+          <t>[PASS] PRICE/CLOSE &lt; 200.0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] EMA/EMA9 = 150</t>
+          <t>[FAIL] EMA/EMA9 = 150.0</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>[PASS] RSI/RSI14 &gt; 10</t>
+          <t>[PASS] RSI/RSI14 &gt; 10.0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>[PASS] BREAKOUT/HIGH &gt; 50</t>
+          <t>[PASS] BREAKOUT/HIGH &gt; 50.0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>[PASS] CANDLE/BEARISH_ENGULFING None None</t>
+          <t>[PASS] CANDLE/BEARISH_ENGULFING None 0.0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] TIME/None None ['10:00', '11:00']</t>
+          <t>[FAIL] TIME/None None 0</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] VOLUME/None &lt; 1000</t>
+          <t>[FAIL] VOLUME/None &lt; 1000.0</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>[PASS] PRICE/OPEN = 95</t>
+          <t>[PASS] PRICE/OPEN = 95.0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>[PASS] CANDLE/HAMMER None None</t>
+          <t>[PASS] CANDLE/HAMMER None 0.0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] BREAKOUT/LOW &lt; 10</t>
+          <t>[FAIL] BREAKOUT/LOW &lt; 10.0</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>[PASS] PRICE/CLOSE &gt; 95</t>
+          <t>[PASS] PRICE/CLOSE &gt; 95.0</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>[PASS] RSI/RSI14 &gt; 20</t>
+          <t>[PASS] RSI/RSI14 &gt; 20.0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>[PASS] MACD/MACD12_26 &gt; 0</t>
+          <t>[PASS] MACD/MACD12_26 &gt; 0.0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] VOLUME/None &gt; 10000</t>
+          <t>[FAIL] VOLUME/None &gt; 10000.0</t>
         </is>
       </c>
       <c r="E36" s="7" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>[PASS] EMA/EMA9 &lt; 100</t>
+          <t>[PASS] EMA/EMA9 &lt; 100.0</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>[PASS] EMA/EMA21 = 97</t>
+          <t>[PASS] EMA/EMA21 = 97.0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D41" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] RSI/RSI14 &lt; 10</t>
+          <t>[FAIL] RSI/RSI14 &lt; 10.0</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D42" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] MACD/MACD12_26 &lt; 0</t>
+          <t>[FAIL] MACD/MACD12_26 &lt; 0.0</t>
         </is>
       </c>
       <c r="E42" s="7" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>[PASS] BREAKOUT/HIGH &gt; 100</t>
+          <t>[PASS] BREAKOUT/HIGH &gt; 100.0</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D45" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] TIME/None None ['09:00', '20:00']</t>
+          <t>[FAIL] TIME/None None 0</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="D47" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] CANDLE/DOJI None None</t>
+          <t>[FAIL] CANDLE/DOJI None 0.0</t>
         </is>
       </c>
       <c r="E47" s="7" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>[PASS] VOLUME/None &gt; 2000</t>
+          <t>[PASS] VOLUME/None &gt; 2000.0</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -1436,19 +1436,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr"/>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>[PASS] TIME/None None ['00:00', '05:00']</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
+      <c r="A50" s="7" t="inlineStr"/>
+      <c r="B50" s="7" t="inlineStr"/>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>[FAIL] TIME/None None 0</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] VOLUME/None &lt; 100</t>
+          <t>[FAIL] VOLUME/None &lt; 100.0</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr"/>
@@ -1483,11 +1483,11 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Matched: True</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="b">
-        <v>1</v>
+          <t>Matched: False</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>[PASS] CANDLE/BULLISH_ENGULFING None None</t>
+          <t>[PASS] CANDLE/BULLISH_ENGULFING None 0.0</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>AND: EMA9 cross_down EMA21 &amp; PRICE &lt; EMA9 (pass)</t>
+          <t>AND: EMA9 cross_down EMA21 &amp; PRICE &lt; EMA9 (fail)</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>[PASS] RSI/RSI14 &gt; 10</t>
+          <t>[PASS] RSI/RSI14 &gt; 10.0</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>[PASS] MACD/MACD12_26 &gt; 0</t>
+          <t>[PASS] MACD/MACD12_26 &gt; 0.0</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>[PASS] VOLUME/None &gt; 1000</t>
+          <t>[PASS] VOLUME/None &gt; 1000.0</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D66" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] EMA/EMA21 &lt; 96</t>
+          <t>[FAIL] EMA/EMA21 &lt; 96.0</t>
         </is>
       </c>
       <c r="E66" s="7" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] PRICE/CLOSE &gt; 120</t>
+          <t>[FAIL] PRICE/CLOSE &gt; 120.0</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D68" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] BREAKOUT/HIGH &gt; 103</t>
+          <t>[FAIL] BREAKOUT/HIGH &gt; 103.0</t>
         </is>
       </c>
       <c r="E68" s="7" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>[PASS] VOLUME/None &gt; 2000</t>
+          <t>[PASS] VOLUME/None &gt; 2000.0</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>[PASS] CANDLE/HAMMER None None</t>
+          <t>[PASS] CANDLE/HAMMER None 0.0</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D72" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] TIME/None None ['09:00', '17:00']</t>
+          <t>[FAIL] TIME/None None 0</t>
         </is>
       </c>
       <c r="E72" s="7" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D74" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] EMA/EMA50 = 96</t>
+          <t>[FAIL] EMA/EMA50 = 96.0</t>
         </is>
       </c>
       <c r="E74" s="7" t="inlineStr"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D76" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] RSI/RSI14 &lt; 20</t>
+          <t>[FAIL] RSI/RSI14 &lt; 20.0</t>
         </is>
       </c>
       <c r="E76" s="7" t="inlineStr"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D77" s="7" t="inlineStr">
         <is>
-          <t>[FAIL] VOLUME/None &gt; 5000</t>
+          <t>[FAIL] VOLUME/None &gt; 5000.0</t>
         </is>
       </c>
       <c r="E77" s="7" t="inlineStr"/>
